--- a/web/PirateCardsLayaGame/design/Config/Common/Item.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62574F23-AB90-4815-983F-BD24F73C0AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C5BD2-1C3D-4890-B2E0-8EB583BE560A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zh_cn_itemDes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -323,6 +319,10 @@
   </si>
   <si>
     <t>key40000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_cn_des</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +846,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
@@ -905,36 +905,36 @@
         <v>9</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>5</v>
@@ -1022,16 +1022,16 @@
         <v>501</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="9">
         <v>5</v>
@@ -1045,16 +1045,16 @@
         <v>502</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="9">
         <v>5</v>
@@ -1068,16 +1068,16 @@
         <v>503</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="9">
         <v>5</v>
@@ -1091,16 +1091,16 @@
         <v>504</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="9">
         <v>5</v>
@@ -1183,92 +1183,92 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.5">

--- a/web/PirateCardsLayaGame/design/Config/Common/Item.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C5BD2-1C3D-4890-B2E0-8EB583BE560A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB8F8B-46D7-4A5F-B255-1C6EDA1CE815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="696" yWindow="696" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -846,7 +846,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
